--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -546,10 +546,10 @@
         <v>1.912506</v>
       </c>
       <c r="I2">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J2">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>1.00351102326</v>
+        <v>1.084983566359333</v>
       </c>
       <c r="R2">
-        <v>9.031599209339999</v>
+        <v>9.764852097234</v>
       </c>
       <c r="S2">
-        <v>0.01252145184558262</v>
+        <v>0.01057599242529592</v>
       </c>
       <c r="T2">
-        <v>0.01252145184558262</v>
+        <v>0.01057599242529592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>1.912506</v>
       </c>
       <c r="I3">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J3">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
         <v>39.846391220394</v>
@@ -638,10 +638,10 @@
         <v>358.617520983546</v>
       </c>
       <c r="S3">
-        <v>0.4971890266492273</v>
+        <v>0.3884069259558694</v>
       </c>
       <c r="T3">
-        <v>0.4971890266492274</v>
+        <v>0.3884069259558695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>1.912506</v>
       </c>
       <c r="I4">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J4">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.116601028306</v>
+        <v>0.276592355238</v>
       </c>
       <c r="R4">
-        <v>1.049409254754</v>
+        <v>2.489331197142</v>
       </c>
       <c r="S4">
-        <v>0.00145490595243887</v>
+        <v>0.002696113327971865</v>
       </c>
       <c r="T4">
-        <v>0.00145490595243887</v>
+        <v>0.002696113327971866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1.912506</v>
       </c>
       <c r="I5">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J5">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>8.533155095598667</v>
+        <v>10.182426744768</v>
       </c>
       <c r="R5">
-        <v>76.798395860388</v>
+        <v>91.64184070291201</v>
       </c>
       <c r="S5">
-        <v>0.1064736591266556</v>
+        <v>0.09925428500742062</v>
       </c>
       <c r="T5">
-        <v>0.1064736591266556</v>
+        <v>0.09925428500742063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>1.912506</v>
       </c>
       <c r="I6">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J6">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.05980257511533333</v>
+        <v>0.1375208689366667</v>
       </c>
       <c r="R6">
-        <v>0.538223176038</v>
+        <v>1.23768782043</v>
       </c>
       <c r="S6">
-        <v>0.000746195155999271</v>
+        <v>0.001340499260347887</v>
       </c>
       <c r="T6">
-        <v>0.000746195155999271</v>
+        <v>0.001340499260347887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H7">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I7">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J7">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>0.61928163156</v>
+        <v>1.075160028323333</v>
       </c>
       <c r="R7">
-        <v>5.57353468404</v>
+        <v>9.67644025491</v>
       </c>
       <c r="S7">
-        <v>0.007727174837842626</v>
+        <v>0.0104802364460538</v>
       </c>
       <c r="T7">
-        <v>0.007727174837842626</v>
+        <v>0.0104802364460538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H8">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I8">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J8">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
-        <v>24.589802797164</v>
+        <v>39.48561843831001</v>
       </c>
       <c r="R8">
-        <v>221.308225174476</v>
+        <v>355.37056594479</v>
       </c>
       <c r="S8">
-        <v>0.3068227697358217</v>
+        <v>0.3848902549860257</v>
       </c>
       <c r="T8">
-        <v>0.3068227697358218</v>
+        <v>0.3848902549860258</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H9">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I9">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J9">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>0.07195623503600002</v>
+        <v>0.27408806337</v>
       </c>
       <c r="R9">
-        <v>0.647606115324</v>
+        <v>2.46679257033</v>
       </c>
       <c r="S9">
-        <v>0.0008978441801921886</v>
+        <v>0.002671702477293666</v>
       </c>
       <c r="T9">
-        <v>0.0008978441801921886</v>
+        <v>0.002671702477293667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H10">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I10">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J10">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>5.265937381325334</v>
+        <v>10.09023414432</v>
       </c>
       <c r="R10">
-        <v>47.393436431928</v>
+        <v>90.81210729888001</v>
       </c>
       <c r="S10">
-        <v>0.06570648434724261</v>
+        <v>0.09835562785330529</v>
       </c>
       <c r="T10">
-        <v>0.06570648434724261</v>
+        <v>0.0983556278533053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.393412</v>
+        <v>0.63173</v>
       </c>
       <c r="H11">
-        <v>1.180236</v>
+        <v>1.89519</v>
       </c>
       <c r="I11">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="J11">
-        <v>0.3816147612700962</v>
+        <v>0.4977261840230943</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>0.03690506175866667</v>
+        <v>0.1362757427166667</v>
       </c>
       <c r="R11">
-        <v>0.332145555828</v>
+        <v>1.22648168445</v>
       </c>
       <c r="S11">
-        <v>0.0004604881689970937</v>
+        <v>0.001328362260415765</v>
       </c>
       <c r="T11">
-        <v>0.0004604881689970937</v>
+        <v>0.001328362260415765</v>
       </c>
     </row>
   </sheetData>
